--- a/biology/Médecine/René_Diatkine/René_Diatkine.xlsx
+++ b/biology/Médecine/René_Diatkine/René_Diatkine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Diatkine</t>
+          <t>René_Diatkine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Diatkine est un psychiatre et psychanalyste français d'origine biélorusse, né le 6 avril 1918 à Paris 19e et mort le 2 novembre 1997 à Garches[1]. Il est inhumé au cimetière parisien de Pantin dans la 8e division.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Diatkine est un psychiatre et psychanalyste français d'origine biélorusse, né le 6 avril 1918 à Paris 19e et mort le 2 novembre 1997 à Garches. Il est inhumé au cimetière parisien de Pantin dans la 8e division.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Diatkine</t>
+          <t>René_Diatkine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît en 1918, à Paris, d'une famille juive, émigrée de Russie[2]. Il entreprend des études de médecine au moment où débute la Seconde Guerre mondiale[2] et les poursuit durant la guerre, tout en étant mobilisé. 
-Lors de séjours à Marseille, il fait la rencontre de Rudolph Loewenstein[2], avec qui il établit des contacts professionnels. Il devient médecin en 1946 et commence sa formation de psychiatre et de psychanalyste à Paris, où il s'établit. Il est interne, puis chef de clinique à l'hôpital Necker, dans le service de Georges Heuyer. Il rencontre Julian de Ajuriaguerra, et participe avec lui à une consultation pour troubles du langage et de la motricité[3].
-Il travaille comme psychiatre à la clinique des maladies mentales de l'hôpital Sainte-Anne, à Paris[4].
-Il entreprend une analyse avec Jacques Lacan[4] et s'affilie à la Société psychanalytique de Paris[4].
-Il devient médecin chef de secteur et d'intersecteur enfants, du XIIIe arrondissement de Paris[4]. Entre 1960 et 1995, il est professeur à la faculté de médecine de Genève[4].
-En 1972 et 1973, il préside la Société psychanalytique de Paris[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît en 1918, à Paris, d'une famille juive, émigrée de Russie. Il entreprend des études de médecine au moment où débute la Seconde Guerre mondiale et les poursuit durant la guerre, tout en étant mobilisé. 
+Lors de séjours à Marseille, il fait la rencontre de Rudolph Loewenstein, avec qui il établit des contacts professionnels. Il devient médecin en 1946 et commence sa formation de psychiatre et de psychanalyste à Paris, où il s'établit. Il est interne, puis chef de clinique à l'hôpital Necker, dans le service de Georges Heuyer. Il rencontre Julian de Ajuriaguerra, et participe avec lui à une consultation pour troubles du langage et de la motricité.
+Il travaille comme psychiatre à la clinique des maladies mentales de l'hôpital Sainte-Anne, à Paris.
+Il entreprend une analyse avec Jacques Lacan et s'affilie à la Société psychanalytique de Paris.
+Il devient médecin chef de secteur et d'intersecteur enfants, du XIIIe arrondissement de Paris. Entre 1960 et 1995, il est professeur à la faculté de médecine de Genève.
+En 1972 et 1973, il préside la Société psychanalytique de Paris.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Diatkine</t>
+          <t>René_Diatkine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, il a impulsé un essor à la psychiatrie de l'enfant, de l'adulte, aux traitements des psychoses et à l'ensemble de la psychanalyse. Son nom est attaché à chacune de ces spécialités comme une référence.
 Il a collaboré à Genève avec Julian de Ajuriaguerra et nombres d'analystes travaillant en institution psychiatrique. Il a été en analyse chez Jacques Lacan, dont il a ensuite réfuté les idées, puis chez Sacha Nacht.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Diatkine</t>
+          <t>René_Diatkine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il a publié de nombreux ouvrages et articles mentionnés sur le site de la SPP (Bibliothèque Sigmund Freud)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il a publié de nombreux ouvrages et articles mentionnés sur le site de la SPP (Bibliothèque Sigmund Freud) :
 « Agressivité et fantasmes d'agression » Revue française de psychanalyse, 1984, tome 4 (texte princeps)
 avec Serge Lebovici, Michel Soulé, Nouveau traité de psychiatrie de l'enfant et de l'adolescent en 4 volumes, PUF-Quadridge, 2004  (ISBN 2130545572)
 L'enfant dans l'adulte, ou, l'éternelle capacité de rêverie, Delachaux &amp; Niestle, 1994  (ISBN 2603009583)
